--- a/data_year/zb/工业/按行业分国有控股工业企业主要经济指标(2000-2002)/出口交货值.xlsx
+++ b/data_year/zb/工业/按行业分国有控股工业企业主要经济指标(2000-2002)/出口交货值.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO4"/>
+  <dimension ref="B1:AO1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -635,381 +635,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>2000年</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>43.34504</v>
-      </c>
-      <c r="C2" t="n">
-        <v>252.09473</v>
-      </c>
-      <c r="D2" t="n">
-        <v>33.8073</v>
-      </c>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="n">
-        <v>13.20084</v>
-      </c>
-      <c r="G2" t="n">
-        <v>152.93511</v>
-      </c>
-      <c r="H2" t="n">
-        <v>24.69687</v>
-      </c>
-      <c r="I2" t="n">
-        <v>82.91334999999999</v>
-      </c>
-      <c r="J2" t="n">
-        <v>1.27728</v>
-      </c>
-      <c r="K2" t="n">
-        <v>3169.19439</v>
-      </c>
-      <c r="L2" t="n">
-        <v>12.40292</v>
-      </c>
-      <c r="M2" t="n">
-        <v>7.77568</v>
-      </c>
-      <c r="N2" t="n">
-        <v>13.92012</v>
-      </c>
-      <c r="O2" t="n">
-        <v>112.91901</v>
-      </c>
-      <c r="P2" t="n">
-        <v>138.8777</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>12.18358</v>
-      </c>
-      <c r="R2" t="n">
-        <v>57.70831</v>
-      </c>
-      <c r="S2" t="n">
-        <v>5.52847</v>
-      </c>
-      <c r="T2" t="n">
-        <v>2.30293</v>
-      </c>
-      <c r="U2" t="n">
-        <v>57.42911</v>
-      </c>
-      <c r="V2" t="n">
-        <v>11.1675</v>
-      </c>
-      <c r="W2" t="n">
-        <v>0.92833</v>
-      </c>
-      <c r="X2" t="n">
-        <v>76.97038999999999</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>49.91615</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>578.54824</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>91.35269</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>21.03984</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>153.55076</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>116.4875</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>489.58446</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>0.03135</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>12.35203</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>66.47459000000001</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>53.63015</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>10.96876</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>36.5649</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>61.84865</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>17.4617</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>279.02844</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>0.01511</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>2001年</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>42.84898</v>
-      </c>
-      <c r="C3" t="n">
-        <v>263.25619</v>
-      </c>
-      <c r="D3" t="n">
-        <v>25.13605</v>
-      </c>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="n">
-        <v>18.39042</v>
-      </c>
-      <c r="G3" t="n">
-        <v>164.65806</v>
-      </c>
-      <c r="H3" t="n">
-        <v>18.22462</v>
-      </c>
-      <c r="I3" t="n">
-        <v>83.11263</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1.67168</v>
-      </c>
-      <c r="K3" t="n">
-        <v>2977.12036</v>
-      </c>
-      <c r="L3" t="n">
-        <v>12.12616</v>
-      </c>
-      <c r="M3" t="n">
-        <v>5.2719</v>
-      </c>
-      <c r="N3" t="n">
-        <v>12.01926</v>
-      </c>
-      <c r="O3" t="n">
-        <v>114.66019</v>
-      </c>
-      <c r="P3" t="n">
-        <v>130.86487</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>11.68451</v>
-      </c>
-      <c r="R3" t="n">
-        <v>50.97735</v>
-      </c>
-      <c r="S3" t="n">
-        <v>5.42113</v>
-      </c>
-      <c r="T3" t="n">
-        <v>0.7969000000000001</v>
-      </c>
-      <c r="U3" t="n">
-        <v>57.07373</v>
-      </c>
-      <c r="V3" t="n">
-        <v>14.27904</v>
-      </c>
-      <c r="W3" t="n">
-        <v>0.35824</v>
-      </c>
-      <c r="X3" t="n">
-        <v>113.84687</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>55.9394</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>588.45267</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>91.60424999999999</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>28.70242</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>162.20352</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>73.578</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>421.06991</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>1e-05</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>8.730969999999999</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>47.28011</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>45.95875</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>10.09819</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>36.90319</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>59.78193</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>20.81055</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>166.85195</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>0.16142</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>2002年</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>37.92496</v>
-      </c>
-      <c r="C4" t="n">
-        <v>309.34297</v>
-      </c>
-      <c r="D4" t="n">
-        <v>28.74963</v>
-      </c>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="n">
-        <v>18.86457</v>
-      </c>
-      <c r="G4" t="n">
-        <v>156.00449</v>
-      </c>
-      <c r="H4" t="n">
-        <v>28.47078</v>
-      </c>
-      <c r="I4" t="n">
-        <v>78.25729</v>
-      </c>
-      <c r="J4" t="n">
-        <v>1.40329</v>
-      </c>
-      <c r="K4" t="n">
-        <v>3186.21296</v>
-      </c>
-      <c r="L4" t="n">
-        <v>9.19313</v>
-      </c>
-      <c r="M4" t="n">
-        <v>6.10882</v>
-      </c>
-      <c r="N4" t="n">
-        <v>11.19485</v>
-      </c>
-      <c r="O4" t="n">
-        <v>119.25734</v>
-      </c>
-      <c r="P4" t="n">
-        <v>145.36781</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>12.4959</v>
-      </c>
-      <c r="R4" t="n">
-        <v>43.45107</v>
-      </c>
-      <c r="S4" t="n">
-        <v>8.71405</v>
-      </c>
-      <c r="T4" t="n">
-        <v>1.14446</v>
-      </c>
-      <c r="U4" t="n">
-        <v>49.52138</v>
-      </c>
-      <c r="V4" t="n">
-        <v>17.60234</v>
-      </c>
-      <c r="W4" t="n">
-        <v>3.06627</v>
-      </c>
-      <c r="X4" t="n">
-        <v>130.65536</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>3.07436</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>756.32136</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>99.19962</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>20.04359</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>200.32349</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>66.28530000000001</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>394.99588</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>0.04707</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>8.51995</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>49.70619</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>54.17776</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>13.75787</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>41.92513</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>59.87263</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>23.2676</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>157.88594</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>0.34046</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
